--- a/CPL trade-in Cashify.xlsx
+++ b/CPL trade-in Cashify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maple/Desktop/Transfer/Final Dashboard for the trade-in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA2EDC-2859-1440-A9AA-A3BD7D93B1D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57CEE40-D9F4-BF4B-90EC-4F92281040D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
         <v>64</v>
       </c>
       <c r="T2" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>427</v>
       </c>
       <c r="T4" s="2">
-        <v>519</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="T5" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="T6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="T7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
